--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44167,6 +44167,43 @@
         <v>7300</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44204,6 +44204,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44241,6 +44241,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44278,6 +44278,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44315,6 +44315,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44352,6 +44352,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44389,6 +44389,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44426,6 +44426,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44463,6 +44463,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44500,6 +44500,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>11800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44535,6 +44535,41 @@
         <v>11800</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44570,6 +44570,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>11500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44605,6 +44605,78 @@
         <v>11500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44677,6 +44677,80 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44751,6 +44751,43 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44788,6 +44788,43 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44825,6 +44825,43 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44862,6 +44862,41 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>38000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44897,6 +44897,78 @@
         <v>38000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="I1237" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44969,6 +44969,41 @@
         </is>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>22000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45004,6 +45004,41 @@
         <v>22000</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2074"/>
+  <dimension ref="A1:I2075"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74264,6 +74264,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2075">
+      <c r="A2075" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2075" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D2075" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E2075" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F2075" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G2075" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H2075" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I2075" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2075"/>
+  <dimension ref="A1:I2076"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74299,6 +74299,41 @@
         <v>500</v>
       </c>
     </row>
+    <row r="2076">
+      <c r="A2076" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2076" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D2076" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E2076" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F2076" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G2076" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H2076" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I2076" t="n">
+        <v>14500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2076"/>
+  <dimension ref="A1:I2077"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74334,6 +74334,41 @@
         <v>14500</v>
       </c>
     </row>
+    <row r="2077">
+      <c r="A2077" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2077" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D2077" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E2077" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F2077" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G2077" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H2077" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I2077" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2077"/>
+  <dimension ref="A1:I2078"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74369,6 +74369,41 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="2078">
+      <c r="A2078" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2078" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D2078" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E2078" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F2078" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2078" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H2078" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I2078" t="n">
+        <v>89900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2078"/>
+  <dimension ref="A1:I2079"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74404,6 +74404,41 @@
         <v>89900</v>
       </c>
     </row>
+    <row r="2079">
+      <c r="A2079" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2079" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D2079" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E2079" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F2079" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G2079" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H2079" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I2079" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2079"/>
+  <dimension ref="A1:I2080"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74439,6 +74439,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2080">
+      <c r="A2080" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2080" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D2080" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E2080" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F2080" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G2080" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H2080" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I2080" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2080"/>
+  <dimension ref="A1:I2081"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74476,6 +74476,43 @@
         </is>
       </c>
     </row>
+    <row r="2081">
+      <c r="A2081" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2081" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D2081" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E2081" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F2081" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G2081" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H2081" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I2081" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2081"/>
+  <dimension ref="A1:I2082"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74513,6 +74513,43 @@
         </is>
       </c>
     </row>
+    <row r="2082">
+      <c r="A2082" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2082" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D2082" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E2082" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F2082" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G2082" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H2082" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I2082" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2082"/>
+  <dimension ref="A1:I2083"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74550,6 +74550,43 @@
         </is>
       </c>
     </row>
+    <row r="2083">
+      <c r="A2083" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2083" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D2083" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E2083" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F2083" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G2083" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H2083" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I2083" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2083"/>
+  <dimension ref="A1:I2084"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74587,6 +74587,43 @@
         </is>
       </c>
     </row>
+    <row r="2084">
+      <c r="A2084" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2084" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D2084" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E2084" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F2084" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G2084" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H2084" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I2084" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2084"/>
+  <dimension ref="A1:I2085"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74624,6 +74624,41 @@
         </is>
       </c>
     </row>
+    <row r="2085">
+      <c r="A2085" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2085" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D2085" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E2085" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F2085" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G2085" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H2085" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I2085" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2085"/>
+  <dimension ref="A1:I2086"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74659,6 +74659,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2086">
+      <c r="A2086" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2086" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D2086" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E2086" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F2086" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G2086" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2086" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2086" t="n">
+        <v>14200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2086"/>
+  <dimension ref="A1:I2087"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74694,6 +74694,41 @@
         <v>14200</v>
       </c>
     </row>
+    <row r="2087">
+      <c r="A2087" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2087" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D2087" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E2087" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F2087" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G2087" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H2087" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I2087" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2087"/>
+  <dimension ref="A1:I2088"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74729,6 +74729,41 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="2088">
+      <c r="A2088" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2088" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D2088" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E2088" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F2088" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G2088" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H2088" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I2088" t="n">
+        <v>43000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5029.xlsx
+++ b/data/5029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2088"/>
+  <dimension ref="A1:I2089"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74764,6 +74764,41 @@
         <v>43000</v>
       </c>
     </row>
+    <row r="2089">
+      <c r="A2089" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2089" t="inlineStr">
+        <is>
+          <t>5029</t>
+        </is>
+      </c>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>FAREAST</t>
+        </is>
+      </c>
+      <c r="E2089" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F2089" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G2089" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H2089" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I2089" t="n">
+        <v>41000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
